--- a/refair-server/datasets/few_shot_dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few_shot_dataset/FSDataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few_shot_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A3AE2-35C4-44B4-BA8A-61FCCCDE78DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DC413-9BAB-44C0-9E72-2E6D8C4AC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -1061,9 +1061,6 @@
     <t>As a pharmaceutical researcher, I want to use feature selection algorithms to identify molecular descriptors that correlate with drug efficacy and safety profiles, aiding in the prioritization of lead compounds for further preclinical testing.</t>
   </si>
   <si>
-    <t>As a cardiologist, I want to use keyword extraction algorithms to extract relevant terms from medical literature and clinical guidelines pertaining to cardiac rehabilitation protocols, aiding in the development of evidence-based treatment plans.</t>
-  </si>
-  <si>
     <t>As a pediatric geneticist, I want to address the challenge of imbalanced datasets in genomic studies by developing algorithms that can accurately detect and classify rare genetic disorders in children, enabling early diagnosis and personalized treatment planning.</t>
   </si>
   <si>
@@ -1965,6 +1962,9 @@
   </si>
   <si>
     <t>Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a cardiologist, I want to use keyword extraction algorithms to extract relevant terms from medical literature and clinical guidelines pertaining to cardiac rehabilitation protocols, aiding in the development of evidence-based treatment plans. </t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2170,28 +2170,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2539,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E440" sqref="E440"/>
+    <sheetView tabSelected="1" topLeftCell="C281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2553,19 +2551,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2573,819 +2571,819 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="20">
+      <c r="D2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="C3" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="D5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="B3" s="20">
+      <c r="D6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C7" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36" s="18">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" s="18">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="18">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B40" s="18">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B41" s="18">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="20">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B15" s="20">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="20">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B18" s="20">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B25" s="20">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B28" s="20">
-        <v>1</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B29" s="20">
-        <v>1</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B31" s="20">
-        <v>1</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B32" s="20">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B33" s="20">
-        <v>1</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B34" s="20">
-        <v>1</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B35" s="20">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36" s="20">
-        <v>1</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B37" s="20">
-        <v>1</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B38" s="20">
-        <v>1</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B40" s="20">
-        <v>1</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B41" s="20">
-        <v>1</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="17">
-        <v>2</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="27" t="s">
         <v>109</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3402,10 +3400,10 @@
       <c r="C43" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="27" t="s">
         <v>117</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -3422,10 +3420,10 @@
       <c r="C44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="27" t="s">
         <v>289</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3442,10 +3440,10 @@
       <c r="C45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="27" t="s">
         <v>118</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3462,10 +3460,10 @@
       <c r="C46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="27" t="s">
         <v>110</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3482,10 +3480,10 @@
       <c r="C47" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="27" t="s">
         <v>280</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3502,7 +3500,7 @@
       <c r="C48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3522,7 +3520,7 @@
       <c r="C49" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3542,7 +3540,7 @@
       <c r="C50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3562,7 +3560,7 @@
       <c r="C51" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3582,7 +3580,7 @@
       <c r="C52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3602,7 +3600,7 @@
       <c r="C53" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3622,7 +3620,7 @@
       <c r="C54" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3642,7 +3640,7 @@
       <c r="C55" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3662,7 +3660,7 @@
       <c r="C56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3682,7 +3680,7 @@
       <c r="C57" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -3702,7 +3700,7 @@
       <c r="C58" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -3722,7 +3720,7 @@
       <c r="C59" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3742,7 +3740,7 @@
       <c r="C60" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3762,7 +3760,7 @@
       <c r="C61" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3782,7 +3780,7 @@
       <c r="C62" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3802,7 +3800,7 @@
       <c r="C63" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -3822,7 +3820,7 @@
       <c r="C64" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -3842,7 +3840,7 @@
       <c r="C65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3862,7 +3860,7 @@
       <c r="C66" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -7140,13 +7138,13 @@
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -7160,13 +7158,13 @@
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -7340,13 +7338,13 @@
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -7360,13 +7358,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -7540,13 +7538,13 @@
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -7560,13 +7558,13 @@
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -7740,13 +7738,13 @@
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>55</v>
@@ -7760,13 +7758,13 @@
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -7940,13 +7938,13 @@
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -7960,13 +7958,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -8140,13 +8138,13 @@
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -8160,13 +8158,13 @@
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -8340,13 +8338,13 @@
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -8360,13 +8358,13 @@
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -8386,7 +8384,7 @@
         <v>13</v>
       </c>
       <c r="E292" s="14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -8506,7 +8504,7 @@
         <v>13</v>
       </c>
       <c r="E298" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -8526,7 +8524,7 @@
         <v>13</v>
       </c>
       <c r="E299" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -8540,13 +8538,13 @@
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -8560,13 +8558,13 @@
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>
@@ -8586,7 +8584,7 @@
         <v>26</v>
       </c>
       <c r="E302" s="14" t="s">
-        <v>344</v>
+        <v>642</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>55</v>
@@ -8626,7 +8624,7 @@
         <v>26</v>
       </c>
       <c r="E304" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>55</v>
@@ -8706,7 +8704,7 @@
         <v>26</v>
       </c>
       <c r="E308" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>55</v>
@@ -8726,7 +8724,7 @@
         <v>26</v>
       </c>
       <c r="E309" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>55</v>
@@ -8740,13 +8738,13 @@
         <v>6</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>55</v>
@@ -8760,13 +8758,13 @@
         <v>6</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>55</v>
@@ -8786,7 +8784,7 @@
         <v>14</v>
       </c>
       <c r="E312" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>55</v>
@@ -8886,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="E317" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>55</v>
@@ -8906,7 +8904,7 @@
         <v>14</v>
       </c>
       <c r="E318" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>55</v>
@@ -8926,7 +8924,7 @@
         <v>14</v>
       </c>
       <c r="E319" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>55</v>
@@ -8940,13 +8938,13 @@
         <v>6</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>55</v>
@@ -8960,13 +8958,13 @@
         <v>6</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>55</v>
@@ -8986,7 +8984,7 @@
         <v>30</v>
       </c>
       <c r="E322" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>55</v>
@@ -9026,7 +9024,7 @@
         <v>30</v>
       </c>
       <c r="E324" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>55</v>
@@ -9106,7 +9104,7 @@
         <v>30</v>
       </c>
       <c r="E328" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>55</v>
@@ -9126,7 +9124,7 @@
         <v>30</v>
       </c>
       <c r="E329" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>55</v>
@@ -9140,13 +9138,13 @@
         <v>6</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>55</v>
@@ -9160,13 +9158,13 @@
         <v>6</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>55</v>
@@ -9306,7 +9304,7 @@
         <v>15</v>
       </c>
       <c r="E338" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>55</v>
@@ -9326,7 +9324,7 @@
         <v>15</v>
       </c>
       <c r="E339" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>55</v>
@@ -9340,13 +9338,13 @@
         <v>6</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>55</v>
@@ -9360,13 +9358,13 @@
         <v>6</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>55</v>
@@ -9506,7 +9504,7 @@
         <v>16</v>
       </c>
       <c r="E348" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>55</v>
@@ -9526,7 +9524,7 @@
         <v>16</v>
       </c>
       <c r="E349" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>55</v>
@@ -9540,13 +9538,13 @@
         <v>6</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>55</v>
@@ -9560,13 +9558,13 @@
         <v>6</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>55</v>
@@ -9626,7 +9624,7 @@
         <v>17</v>
       </c>
       <c r="E354" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>55</v>
@@ -9706,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>55</v>
@@ -9726,7 +9724,7 @@
         <v>17</v>
       </c>
       <c r="E359" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>55</v>
@@ -9740,13 +9738,13 @@
         <v>6</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>55</v>
@@ -9760,13 +9758,13 @@
         <v>6</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>55</v>
@@ -9786,7 +9784,7 @@
         <v>29</v>
       </c>
       <c r="E362" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>55</v>
@@ -9806,7 +9804,7 @@
         <v>29</v>
       </c>
       <c r="E363" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>55</v>
@@ -9886,7 +9884,7 @@
         <v>29</v>
       </c>
       <c r="E367" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>55</v>
@@ -9906,7 +9904,7 @@
         <v>29</v>
       </c>
       <c r="E368" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>55</v>
@@ -9926,7 +9924,7 @@
         <v>29</v>
       </c>
       <c r="E369" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>55</v>
@@ -9940,13 +9938,13 @@
         <v>6</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>55</v>
@@ -9960,13 +9958,13 @@
         <v>6</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>55</v>
@@ -9986,7 +9984,7 @@
         <v>18</v>
       </c>
       <c r="E372" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>55</v>
@@ -10026,7 +10024,7 @@
         <v>18</v>
       </c>
       <c r="E374" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>55</v>
@@ -10106,7 +10104,7 @@
         <v>18</v>
       </c>
       <c r="E378" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>55</v>
@@ -10126,7 +10124,7 @@
         <v>18</v>
       </c>
       <c r="E379" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>55</v>
@@ -10140,13 +10138,13 @@
         <v>6</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>55</v>
@@ -10160,13 +10158,13 @@
         <v>6</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>55</v>
@@ -10186,7 +10184,7 @@
         <v>20</v>
       </c>
       <c r="E382" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>55</v>
@@ -10226,7 +10224,7 @@
         <v>20</v>
       </c>
       <c r="E384" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>55</v>
@@ -10286,7 +10284,7 @@
         <v>20</v>
       </c>
       <c r="E387" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>55</v>
@@ -10306,7 +10304,7 @@
         <v>20</v>
       </c>
       <c r="E388" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>55</v>
@@ -10326,7 +10324,7 @@
         <v>20</v>
       </c>
       <c r="E389" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>55</v>
@@ -10340,13 +10338,13 @@
         <v>6</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>55</v>
@@ -10360,13 +10358,13 @@
         <v>6</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>55</v>
@@ -10426,7 +10424,7 @@
         <v>24</v>
       </c>
       <c r="E394" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>55</v>
@@ -10506,7 +10504,7 @@
         <v>24</v>
       </c>
       <c r="E398" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>55</v>
@@ -10526,7 +10524,7 @@
         <v>24</v>
       </c>
       <c r="E399" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>55</v>
@@ -10540,13 +10538,13 @@
         <v>6</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>55</v>
@@ -10560,13 +10558,13 @@
         <v>6</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>55</v>
@@ -10586,7 +10584,7 @@
         <v>7</v>
       </c>
       <c r="E402" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>55</v>
@@ -10606,7 +10604,7 @@
         <v>7</v>
       </c>
       <c r="E403" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>55</v>
@@ -10706,7 +10704,7 @@
         <v>7</v>
       </c>
       <c r="E408" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>55</v>
@@ -10726,7 +10724,7 @@
         <v>7</v>
       </c>
       <c r="E409" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>55</v>
@@ -10740,13 +10738,13 @@
         <v>6</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>55</v>
@@ -10760,13 +10758,13 @@
         <v>6</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>55</v>
@@ -10786,7 +10784,7 @@
         <v>9</v>
       </c>
       <c r="E412" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>55</v>
@@ -10826,7 +10824,7 @@
         <v>9</v>
       </c>
       <c r="E414" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>55</v>
@@ -10886,7 +10884,7 @@
         <v>9</v>
       </c>
       <c r="E417" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>55</v>
@@ -10906,7 +10904,7 @@
         <v>9</v>
       </c>
       <c r="E418" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>55</v>
@@ -10926,7 +10924,7 @@
         <v>9</v>
       </c>
       <c r="E419" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>55</v>
@@ -10940,13 +10938,13 @@
         <v>6</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>55</v>
@@ -10960,3213 +10958,3213 @@
         <v>6</v>
       </c>
       <c r="C421" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E421" s="33" t="s">
-        <v>430</v>
+      <c r="E421" s="31" t="s">
+        <v>429</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="30" t="s">
+      <c r="A422" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B422" s="28">
+        <v>7</v>
+      </c>
+      <c r="C422" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B422" s="30">
-        <v>7</v>
-      </c>
-      <c r="C422" s="30" t="s">
+      <c r="D422" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E422" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="D422" s="31" t="s">
+      <c r="F422" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B423" s="28">
+        <v>7</v>
+      </c>
+      <c r="C423" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D423" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E422" s="34" t="s">
+      <c r="E423" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B424" s="28">
+        <v>7</v>
+      </c>
+      <c r="C424" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D424" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E424" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B425" s="28">
+        <v>7</v>
+      </c>
+      <c r="C425" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D425" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B426" s="28">
+        <v>7</v>
+      </c>
+      <c r="C426" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D426" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E426" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B427" s="28">
+        <v>7</v>
+      </c>
+      <c r="C427" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D427" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E427" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B428" s="28">
+        <v>7</v>
+      </c>
+      <c r="C428" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D428" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E428" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B429" s="28">
+        <v>7</v>
+      </c>
+      <c r="C429" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D429" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E429" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B430" s="28">
+        <v>7</v>
+      </c>
+      <c r="C430" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D430" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E430" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B431" s="28">
+        <v>7</v>
+      </c>
+      <c r="C431" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="F422" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="30" t="s">
+      <c r="D431" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E431" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B432" s="28">
+        <v>7</v>
+      </c>
+      <c r="C432" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D432" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E432" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B433" s="28">
+        <v>7</v>
+      </c>
+      <c r="C433" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D433" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E433" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B434" s="28">
+        <v>7</v>
+      </c>
+      <c r="C434" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D434" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E434" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B435" s="28">
+        <v>7</v>
+      </c>
+      <c r="C435" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D435" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E435" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B436" s="28">
+        <v>7</v>
+      </c>
+      <c r="C436" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D436" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E436" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B437" s="28">
+        <v>7</v>
+      </c>
+      <c r="C437" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D437" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E437" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B438" s="28">
+        <v>7</v>
+      </c>
+      <c r="C438" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B423" s="30">
-        <v>7</v>
-      </c>
-      <c r="C423" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D423" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E423" s="35" t="s">
+      <c r="D438" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E438" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B439" s="28">
+        <v>7</v>
+      </c>
+      <c r="C439" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D439" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E439" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B440" s="28">
+        <v>7</v>
+      </c>
+      <c r="C440" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="F423" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="30" t="s">
+      <c r="D440" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E440" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B441" s="28">
+        <v>7</v>
+      </c>
+      <c r="C441" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D441" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E441" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B442" s="28">
+        <v>7</v>
+      </c>
+      <c r="C442" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D442" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E442" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B443" s="28">
+        <v>7</v>
+      </c>
+      <c r="C443" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D443" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E443" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B444" s="28">
+        <v>7</v>
+      </c>
+      <c r="C444" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D444" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E444" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B445" s="28">
+        <v>7</v>
+      </c>
+      <c r="C445" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D445" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E445" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B446" s="28">
+        <v>7</v>
+      </c>
+      <c r="C446" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B424" s="30">
-        <v>7</v>
-      </c>
-      <c r="C424" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D424" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E424" s="35" t="s">
+      <c r="D446" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E446" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B447" s="28">
+        <v>7</v>
+      </c>
+      <c r="C447" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D447" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E447" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B448" s="28">
+        <v>7</v>
+      </c>
+      <c r="C448" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D448" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E448" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B449" s="28">
+        <v>7</v>
+      </c>
+      <c r="C449" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="F424" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="30" t="s">
+      <c r="D449" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E449" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B450" s="28">
+        <v>7</v>
+      </c>
+      <c r="C450" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D450" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E450" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B451" s="28">
+        <v>7</v>
+      </c>
+      <c r="C451" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D451" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E451" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B452" s="28">
+        <v>7</v>
+      </c>
+      <c r="C452" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D452" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E452" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B453" s="28">
+        <v>7</v>
+      </c>
+      <c r="C453" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D453" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E453" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B454" s="28">
+        <v>7</v>
+      </c>
+      <c r="C454" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B425" s="30">
-        <v>7</v>
-      </c>
-      <c r="C425" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D425" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E425" s="35" t="s">
+      <c r="D454" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E454" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B455" s="28">
+        <v>7</v>
+      </c>
+      <c r="C455" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D455" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E455" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B456" s="28">
+        <v>7</v>
+      </c>
+      <c r="C456" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D456" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E456" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B457" s="28">
+        <v>7</v>
+      </c>
+      <c r="C457" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D457" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E457" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B458" s="28">
+        <v>7</v>
+      </c>
+      <c r="C458" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="F425" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="30" t="s">
+      <c r="D458" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E458" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B459" s="28">
+        <v>7</v>
+      </c>
+      <c r="C459" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D459" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E459" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B460" s="28">
+        <v>7</v>
+      </c>
+      <c r="C460" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D460" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E460" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B461" s="28">
+        <v>7</v>
+      </c>
+      <c r="C461" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D461" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E461" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B462" s="28">
+        <v>7</v>
+      </c>
+      <c r="C462" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B426" s="30">
-        <v>7</v>
-      </c>
-      <c r="C426" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D426" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E426" s="35" t="s">
+      <c r="D462" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E462" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B463" s="28">
+        <v>7</v>
+      </c>
+      <c r="C463" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D463" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E463" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B464" s="28">
+        <v>7</v>
+      </c>
+      <c r="C464" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D464" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E464" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B465" s="28">
+        <v>7</v>
+      </c>
+      <c r="C465" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D465" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E465" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B466" s="28">
+        <v>7</v>
+      </c>
+      <c r="C466" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D466" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E466" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B467" s="28">
+        <v>7</v>
+      </c>
+      <c r="C467" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="F426" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="30" t="s">
+      <c r="D467" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E467" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B468" s="28">
+        <v>7</v>
+      </c>
+      <c r="C468" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D468" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E468" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B469" s="28">
+        <v>7</v>
+      </c>
+      <c r="C469" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D469" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E469" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B470" s="28">
+        <v>7</v>
+      </c>
+      <c r="C470" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B427" s="30">
-        <v>7</v>
-      </c>
-      <c r="C427" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D427" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E427" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="30" t="s">
+      <c r="D470" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E470" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471" s="28">
+        <v>7</v>
+      </c>
+      <c r="C471" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D471" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E471" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472" s="28">
+        <v>7</v>
+      </c>
+      <c r="C472" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D472" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E472" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="28">
+        <v>7</v>
+      </c>
+      <c r="C473" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D473" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E473" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474" s="28">
+        <v>7</v>
+      </c>
+      <c r="C474" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D474" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E474" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B475" s="28">
+        <v>7</v>
+      </c>
+      <c r="C475" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D475" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E475" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B476" s="28">
+        <v>7</v>
+      </c>
+      <c r="C476" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D476" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E476" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B477" s="28">
+        <v>7</v>
+      </c>
+      <c r="C477" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D477" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E477" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B478" s="28">
+        <v>7</v>
+      </c>
+      <c r="C478" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B428" s="30">
-        <v>7</v>
-      </c>
-      <c r="C428" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D428" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E428" s="35" t="s">
+      <c r="D478" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E478" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B479" s="28">
+        <v>7</v>
+      </c>
+      <c r="C479" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D479" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E479" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B480" s="28">
+        <v>7</v>
+      </c>
+      <c r="C480" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D480" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E480" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B481" s="28">
+        <v>7</v>
+      </c>
+      <c r="C481" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D481" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E481" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B482" s="28">
+        <v>7</v>
+      </c>
+      <c r="C482" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D482" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E482" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B483" s="28">
+        <v>7</v>
+      </c>
+      <c r="C483" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D483" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E483" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B484" s="28">
+        <v>7</v>
+      </c>
+      <c r="C484" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D484" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E484" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B485" s="28">
+        <v>7</v>
+      </c>
+      <c r="C485" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="F428" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="30" t="s">
+      <c r="D485" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E485" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B486" s="28">
+        <v>7</v>
+      </c>
+      <c r="C486" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B429" s="30">
-        <v>7</v>
-      </c>
-      <c r="C429" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D429" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E429" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="30" t="s">
+      <c r="D486" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E486" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B487" s="28">
+        <v>7</v>
+      </c>
+      <c r="C487" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D487" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E487" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B488" s="28">
+        <v>7</v>
+      </c>
+      <c r="C488" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D488" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E488" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B489" s="28">
+        <v>7</v>
+      </c>
+      <c r="C489" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D489" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E489" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B490" s="28">
+        <v>7</v>
+      </c>
+      <c r="C490" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D490" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E490" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B491" s="28">
+        <v>7</v>
+      </c>
+      <c r="C491" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D491" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E491" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B492" s="28">
+        <v>7</v>
+      </c>
+      <c r="C492" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D492" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E492" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B493" s="28">
+        <v>7</v>
+      </c>
+      <c r="C493" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D493" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E493" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B494" s="28">
+        <v>7</v>
+      </c>
+      <c r="C494" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B430" s="30">
-        <v>7</v>
-      </c>
-      <c r="C430" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D430" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E430" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="30" t="s">
+      <c r="D494" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E494" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B495" s="28">
+        <v>7</v>
+      </c>
+      <c r="C495" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D495" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E495" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B496" s="28">
+        <v>7</v>
+      </c>
+      <c r="C496" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D496" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E496" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B497" s="28">
+        <v>7</v>
+      </c>
+      <c r="C497" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D497" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E497" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B498" s="28">
+        <v>7</v>
+      </c>
+      <c r="C498" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D498" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E498" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B499" s="28">
+        <v>7</v>
+      </c>
+      <c r="C499" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D499" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E499" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B500" s="28">
+        <v>7</v>
+      </c>
+      <c r="C500" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D500" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E500" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B501" s="28">
+        <v>7</v>
+      </c>
+      <c r="C501" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D501" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E501" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B502" s="28">
+        <v>7</v>
+      </c>
+      <c r="C502" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B431" s="30">
-        <v>7</v>
-      </c>
-      <c r="C431" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D431" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E431" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="30" t="s">
+      <c r="D502" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E502" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B503" s="28">
+        <v>7</v>
+      </c>
+      <c r="C503" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D503" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E503" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B504" s="28">
+        <v>7</v>
+      </c>
+      <c r="C504" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D504" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E504" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B505" s="28">
+        <v>7</v>
+      </c>
+      <c r="C505" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D505" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E505" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B506" s="28">
+        <v>7</v>
+      </c>
+      <c r="C506" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D506" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E506" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B507" s="28">
+        <v>7</v>
+      </c>
+      <c r="C507" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D507" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E507" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B508" s="28">
+        <v>7</v>
+      </c>
+      <c r="C508" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D508" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E508" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B509" s="28">
+        <v>7</v>
+      </c>
+      <c r="C509" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D509" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E509" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B510" s="28">
+        <v>7</v>
+      </c>
+      <c r="C510" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B432" s="30">
-        <v>7</v>
-      </c>
-      <c r="C432" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D432" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E432" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="30" t="s">
+      <c r="D510" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E510" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B511" s="28">
+        <v>7</v>
+      </c>
+      <c r="C511" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D511" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E511" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B512" s="28">
+        <v>7</v>
+      </c>
+      <c r="C512" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D512" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E512" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B513" s="28">
+        <v>7</v>
+      </c>
+      <c r="C513" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D513" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E513" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B514" s="28">
+        <v>7</v>
+      </c>
+      <c r="C514" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D514" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E514" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B515" s="28">
+        <v>7</v>
+      </c>
+      <c r="C515" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D515" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E515" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B516" s="28">
+        <v>7</v>
+      </c>
+      <c r="C516" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D516" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E516" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B517" s="28">
+        <v>7</v>
+      </c>
+      <c r="C517" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D517" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E517" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B518" s="28">
+        <v>7</v>
+      </c>
+      <c r="C518" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B433" s="30">
-        <v>7</v>
-      </c>
-      <c r="C433" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D433" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E433" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="30" t="s">
+      <c r="D518" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E518" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B519" s="28">
+        <v>7</v>
+      </c>
+      <c r="C519" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D519" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E519" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B520" s="28">
+        <v>7</v>
+      </c>
+      <c r="C520" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D520" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E520" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B521" s="28">
+        <v>7</v>
+      </c>
+      <c r="C521" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D521" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E521" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B522" s="28">
+        <v>7</v>
+      </c>
+      <c r="C522" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D522" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E522" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B523" s="28">
+        <v>7</v>
+      </c>
+      <c r="C523" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D523" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E523" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B524" s="28">
+        <v>7</v>
+      </c>
+      <c r="C524" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D524" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E524" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B525" s="28">
+        <v>7</v>
+      </c>
+      <c r="C525" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D525" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E525" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B526" s="28">
+        <v>7</v>
+      </c>
+      <c r="C526" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B434" s="30">
-        <v>7</v>
-      </c>
-      <c r="C434" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D434" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E434" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="30" t="s">
+      <c r="D526" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E526" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B527" s="28">
+        <v>7</v>
+      </c>
+      <c r="C527" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D527" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E527" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B528" s="28">
+        <v>7</v>
+      </c>
+      <c r="C528" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D528" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E528" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B529" s="28">
+        <v>7</v>
+      </c>
+      <c r="C529" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D529" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E529" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B530" s="28">
+        <v>7</v>
+      </c>
+      <c r="C530" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D530" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E530" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B531" s="28">
+        <v>7</v>
+      </c>
+      <c r="C531" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D531" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E531" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B532" s="28">
+        <v>7</v>
+      </c>
+      <c r="C532" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D532" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E532" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B533" s="28">
+        <v>7</v>
+      </c>
+      <c r="C533" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D533" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E533" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B534" s="28">
+        <v>7</v>
+      </c>
+      <c r="C534" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B435" s="30">
-        <v>7</v>
-      </c>
-      <c r="C435" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D435" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E435" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="30" t="s">
+      <c r="D534" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E534" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B535" s="28">
+        <v>7</v>
+      </c>
+      <c r="C535" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D535" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E535" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B536" s="28">
+        <v>7</v>
+      </c>
+      <c r="C536" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D536" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E536" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B537" s="28">
+        <v>7</v>
+      </c>
+      <c r="C537" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D537" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E537" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B538" s="28">
+        <v>7</v>
+      </c>
+      <c r="C538" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D538" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E538" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B539" s="28">
+        <v>7</v>
+      </c>
+      <c r="C539" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D539" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E539" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B540" s="28">
+        <v>7</v>
+      </c>
+      <c r="C540" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D540" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E540" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B541" s="28">
+        <v>7</v>
+      </c>
+      <c r="C541" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D541" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E541" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B542" s="28">
+        <v>7</v>
+      </c>
+      <c r="C542" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B436" s="30">
-        <v>7</v>
-      </c>
-      <c r="C436" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D436" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E436" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="30" t="s">
+      <c r="D542" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E542" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B543" s="28">
+        <v>7</v>
+      </c>
+      <c r="C543" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D543" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E543" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B544" s="28">
+        <v>7</v>
+      </c>
+      <c r="C544" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D544" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E544" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B545" s="28">
+        <v>7</v>
+      </c>
+      <c r="C545" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D545" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E545" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B546" s="28">
+        <v>7</v>
+      </c>
+      <c r="C546" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D546" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E546" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B547" s="28">
+        <v>7</v>
+      </c>
+      <c r="C547" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D547" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E547" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B548" s="28">
+        <v>7</v>
+      </c>
+      <c r="C548" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D548" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E548" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B549" s="28">
+        <v>7</v>
+      </c>
+      <c r="C549" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D549" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E549" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B550" s="28">
+        <v>7</v>
+      </c>
+      <c r="C550" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B437" s="30">
-        <v>7</v>
-      </c>
-      <c r="C437" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D437" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E437" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="30" t="s">
+      <c r="D550" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E550" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B551" s="28">
+        <v>7</v>
+      </c>
+      <c r="C551" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D551" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E551" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B552" s="28">
+        <v>7</v>
+      </c>
+      <c r="C552" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D552" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E552" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B553" s="28">
+        <v>7</v>
+      </c>
+      <c r="C553" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D553" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E553" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B554" s="28">
+        <v>7</v>
+      </c>
+      <c r="C554" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D554" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E554" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B555" s="28">
+        <v>7</v>
+      </c>
+      <c r="C555" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D555" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E555" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B556" s="28">
+        <v>7</v>
+      </c>
+      <c r="C556" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D556" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E556" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B557" s="28">
+        <v>7</v>
+      </c>
+      <c r="C557" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D557" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E557" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B558" s="28">
+        <v>7</v>
+      </c>
+      <c r="C558" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B438" s="30">
-        <v>7</v>
-      </c>
-      <c r="C438" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D438" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E438" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="30" t="s">
+      <c r="D558" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E558" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B559" s="28">
+        <v>7</v>
+      </c>
+      <c r="C559" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D559" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E559" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B560" s="28">
+        <v>7</v>
+      </c>
+      <c r="C560" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D560" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E560" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B561" s="28">
+        <v>7</v>
+      </c>
+      <c r="C561" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D561" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E561" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B562" s="28">
+        <v>7</v>
+      </c>
+      <c r="C562" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D562" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E562" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B563" s="28">
+        <v>7</v>
+      </c>
+      <c r="C563" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D563" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E563" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B564" s="28">
+        <v>7</v>
+      </c>
+      <c r="C564" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D564" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E564" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B565" s="28">
+        <v>7</v>
+      </c>
+      <c r="C565" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D565" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E565" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B566" s="28">
+        <v>7</v>
+      </c>
+      <c r="C566" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B439" s="30">
-        <v>7</v>
-      </c>
-      <c r="C439" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D439" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E439" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="30" t="s">
+      <c r="D566" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E566" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B567" s="28">
+        <v>7</v>
+      </c>
+      <c r="C567" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D567" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E567" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B568" s="28">
+        <v>7</v>
+      </c>
+      <c r="C568" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D568" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E568" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B569" s="28">
+        <v>7</v>
+      </c>
+      <c r="C569" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D569" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E569" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B570" s="28">
+        <v>7</v>
+      </c>
+      <c r="C570" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D570" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E570" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B571" s="28">
+        <v>7</v>
+      </c>
+      <c r="C571" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D571" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E571" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B572" s="28">
+        <v>7</v>
+      </c>
+      <c r="C572" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D572" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E572" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B573" s="28">
+        <v>7</v>
+      </c>
+      <c r="C573" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D573" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E573" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B574" s="28">
+        <v>7</v>
+      </c>
+      <c r="C574" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B440" s="30">
-        <v>7</v>
-      </c>
-      <c r="C440" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D440" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E440" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B441" s="30">
-        <v>7</v>
-      </c>
-      <c r="C441" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D441" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E441" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B442" s="30">
-        <v>7</v>
-      </c>
-      <c r="C442" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D442" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E442" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B443" s="30">
-        <v>7</v>
-      </c>
-      <c r="C443" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D443" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E443" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B444" s="30">
-        <v>7</v>
-      </c>
-      <c r="C444" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D444" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E444" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B445" s="30">
-        <v>7</v>
-      </c>
-      <c r="C445" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D445" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E445" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B446" s="30">
-        <v>7</v>
-      </c>
-      <c r="C446" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D446" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E446" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B447" s="30">
-        <v>7</v>
-      </c>
-      <c r="C447" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D447" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E447" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B448" s="30">
-        <v>7</v>
-      </c>
-      <c r="C448" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D448" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E448" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B449" s="30">
-        <v>7</v>
-      </c>
-      <c r="C449" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D449" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E449" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B450" s="30">
-        <v>7</v>
-      </c>
-      <c r="C450" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D450" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E450" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B451" s="30">
-        <v>7</v>
-      </c>
-      <c r="C451" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D451" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E451" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B452" s="30">
-        <v>7</v>
-      </c>
-      <c r="C452" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D452" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E452" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B453" s="30">
-        <v>7</v>
-      </c>
-      <c r="C453" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D453" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E453" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B454" s="30">
-        <v>7</v>
-      </c>
-      <c r="C454" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D454" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E454" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B455" s="30">
-        <v>7</v>
-      </c>
-      <c r="C455" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D455" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E455" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B456" s="30">
-        <v>7</v>
-      </c>
-      <c r="C456" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D456" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E456" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B457" s="30">
-        <v>7</v>
-      </c>
-      <c r="C457" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D457" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E457" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B458" s="30">
-        <v>7</v>
-      </c>
-      <c r="C458" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D458" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E458" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B459" s="30">
-        <v>7</v>
-      </c>
-      <c r="C459" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D459" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E459" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B460" s="30">
-        <v>7</v>
-      </c>
-      <c r="C460" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D460" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E460" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B461" s="30">
-        <v>7</v>
-      </c>
-      <c r="C461" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D461" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E461" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B462" s="30">
-        <v>7</v>
-      </c>
-      <c r="C462" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D462" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E462" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B463" s="30">
-        <v>7</v>
-      </c>
-      <c r="C463" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D463" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E463" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B464" s="30">
-        <v>7</v>
-      </c>
-      <c r="C464" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D464" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E464" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B465" s="30">
-        <v>7</v>
-      </c>
-      <c r="C465" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D465" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E465" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B466" s="30">
-        <v>7</v>
-      </c>
-      <c r="C466" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D466" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E466" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B467" s="30">
-        <v>7</v>
-      </c>
-      <c r="C467" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D467" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E467" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B468" s="30">
-        <v>7</v>
-      </c>
-      <c r="C468" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D468" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E468" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B469" s="30">
-        <v>7</v>
-      </c>
-      <c r="C469" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D469" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E469" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B470" s="30">
-        <v>7</v>
-      </c>
-      <c r="C470" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D470" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E470" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B471" s="30">
-        <v>7</v>
-      </c>
-      <c r="C471" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D471" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E471" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B472" s="30">
-        <v>7</v>
-      </c>
-      <c r="C472" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D472" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E472" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B473" s="30">
-        <v>7</v>
-      </c>
-      <c r="C473" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D473" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E473" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B474" s="30">
-        <v>7</v>
-      </c>
-      <c r="C474" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D474" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E474" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B475" s="30">
-        <v>7</v>
-      </c>
-      <c r="C475" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D475" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E475" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B476" s="30">
-        <v>7</v>
-      </c>
-      <c r="C476" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D476" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E476" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B477" s="30">
-        <v>7</v>
-      </c>
-      <c r="C477" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D477" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E477" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B478" s="30">
-        <v>7</v>
-      </c>
-      <c r="C478" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D478" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E478" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B479" s="30">
-        <v>7</v>
-      </c>
-      <c r="C479" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D479" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E479" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B480" s="30">
-        <v>7</v>
-      </c>
-      <c r="C480" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D480" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E480" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B481" s="30">
-        <v>7</v>
-      </c>
-      <c r="C481" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D481" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E481" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="F481" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B482" s="30">
-        <v>7</v>
-      </c>
-      <c r="C482" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D482" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E482" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B483" s="30">
-        <v>7</v>
-      </c>
-      <c r="C483" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D483" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E483" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B484" s="30">
-        <v>7</v>
-      </c>
-      <c r="C484" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D484" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E484" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B485" s="30">
-        <v>7</v>
-      </c>
-      <c r="C485" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D485" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E485" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B486" s="30">
-        <v>7</v>
-      </c>
-      <c r="C486" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D486" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E486" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B487" s="30">
-        <v>7</v>
-      </c>
-      <c r="C487" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D487" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E487" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B488" s="30">
-        <v>7</v>
-      </c>
-      <c r="C488" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D488" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E488" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B489" s="30">
-        <v>7</v>
-      </c>
-      <c r="C489" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D489" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E489" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B490" s="30">
-        <v>7</v>
-      </c>
-      <c r="C490" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D490" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E490" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B491" s="30">
-        <v>7</v>
-      </c>
-      <c r="C491" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D491" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E491" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="F491" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B492" s="30">
-        <v>7</v>
-      </c>
-      <c r="C492" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D492" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E492" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="F492" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B493" s="30">
-        <v>7</v>
-      </c>
-      <c r="C493" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D493" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E493" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B494" s="30">
-        <v>7</v>
-      </c>
-      <c r="C494" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D494" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E494" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B495" s="30">
-        <v>7</v>
-      </c>
-      <c r="C495" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D495" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E495" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B496" s="30">
-        <v>7</v>
-      </c>
-      <c r="C496" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D496" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E496" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="F496" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B497" s="30">
-        <v>7</v>
-      </c>
-      <c r="C497" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D497" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E497" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B498" s="30">
-        <v>7</v>
-      </c>
-      <c r="C498" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D498" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E498" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B499" s="30">
-        <v>7</v>
-      </c>
-      <c r="C499" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D499" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E499" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B500" s="30">
-        <v>7</v>
-      </c>
-      <c r="C500" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D500" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E500" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="F500" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B501" s="30">
-        <v>7</v>
-      </c>
-      <c r="C501" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D501" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E501" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B502" s="30">
-        <v>7</v>
-      </c>
-      <c r="C502" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D502" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E502" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B503" s="30">
-        <v>7</v>
-      </c>
-      <c r="C503" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D503" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E503" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="F503" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B504" s="30">
-        <v>7</v>
-      </c>
-      <c r="C504" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D504" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E504" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B505" s="30">
-        <v>7</v>
-      </c>
-      <c r="C505" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D505" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E505" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="F505" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B506" s="30">
-        <v>7</v>
-      </c>
-      <c r="C506" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D506" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E506" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="F506" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B507" s="30">
-        <v>7</v>
-      </c>
-      <c r="C507" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D507" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E507" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B508" s="30">
-        <v>7</v>
-      </c>
-      <c r="C508" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D508" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E508" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="F508" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B509" s="30">
-        <v>7</v>
-      </c>
-      <c r="C509" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D509" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E509" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="F509" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B510" s="30">
-        <v>7</v>
-      </c>
-      <c r="C510" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D510" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E510" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="F510" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B511" s="30">
-        <v>7</v>
-      </c>
-      <c r="C511" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D511" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E511" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="F511" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B512" s="30">
-        <v>7</v>
-      </c>
-      <c r="C512" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D512" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E512" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B513" s="30">
-        <v>7</v>
-      </c>
-      <c r="C513" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D513" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E513" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="F513" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B514" s="30">
-        <v>7</v>
-      </c>
-      <c r="C514" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D514" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E514" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="F514" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B515" s="30">
-        <v>7</v>
-      </c>
-      <c r="C515" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D515" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E515" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="F515" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B516" s="30">
-        <v>7</v>
-      </c>
-      <c r="C516" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D516" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E516" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="F516" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B517" s="30">
-        <v>7</v>
-      </c>
-      <c r="C517" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D517" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E517" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="F517" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B518" s="30">
-        <v>7</v>
-      </c>
-      <c r="C518" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D518" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E518" s="32" t="s">
-        <v>578</v>
-      </c>
-      <c r="F518" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B519" s="30">
-        <v>7</v>
-      </c>
-      <c r="C519" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D519" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E519" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B520" s="30">
-        <v>7</v>
-      </c>
-      <c r="C520" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D520" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E520" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="F520" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B521" s="30">
-        <v>7</v>
-      </c>
-      <c r="C521" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D521" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E521" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="F521" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B522" s="30">
-        <v>7</v>
-      </c>
-      <c r="C522" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D522" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E522" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="F522" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B523" s="30">
-        <v>7</v>
-      </c>
-      <c r="C523" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D523" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E523" s="32" t="s">
-        <v>583</v>
-      </c>
-      <c r="F523" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B524" s="30">
-        <v>7</v>
-      </c>
-      <c r="C524" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D524" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E524" s="32" t="s">
-        <v>584</v>
-      </c>
-      <c r="F524" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B525" s="30">
-        <v>7</v>
-      </c>
-      <c r="C525" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D525" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E525" s="32" t="s">
-        <v>585</v>
-      </c>
-      <c r="F525" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B526" s="30">
-        <v>7</v>
-      </c>
-      <c r="C526" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D526" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E526" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="F526" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B527" s="30">
-        <v>7</v>
-      </c>
-      <c r="C527" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D527" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E527" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="F527" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B528" s="30">
-        <v>7</v>
-      </c>
-      <c r="C528" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D528" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E528" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B529" s="30">
-        <v>7</v>
-      </c>
-      <c r="C529" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D529" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E529" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B530" s="30">
-        <v>7</v>
-      </c>
-      <c r="C530" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D530" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E530" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B531" s="30">
-        <v>7</v>
-      </c>
-      <c r="C531" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D531" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E531" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="F531" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B532" s="30">
-        <v>7</v>
-      </c>
-      <c r="C532" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D532" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E532" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B533" s="30">
-        <v>7</v>
-      </c>
-      <c r="C533" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D533" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E533" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="F533" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B534" s="30">
-        <v>7</v>
-      </c>
-      <c r="C534" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D534" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E534" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B535" s="30">
-        <v>7</v>
-      </c>
-      <c r="C535" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D535" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E535" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="F535" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B536" s="30">
-        <v>7</v>
-      </c>
-      <c r="C536" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D536" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E536" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B537" s="30">
-        <v>7</v>
-      </c>
-      <c r="C537" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D537" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E537" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="F537" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B538" s="30">
-        <v>7</v>
-      </c>
-      <c r="C538" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D538" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E538" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="F538" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B539" s="30">
-        <v>7</v>
-      </c>
-      <c r="C539" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D539" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E539" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="F539" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B540" s="30">
-        <v>7</v>
-      </c>
-      <c r="C540" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D540" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E540" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="F540" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B541" s="30">
-        <v>7</v>
-      </c>
-      <c r="C541" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D541" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E541" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="F541" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B542" s="30">
-        <v>7</v>
-      </c>
-      <c r="C542" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D542" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E542" s="32" t="s">
-        <v>602</v>
-      </c>
-      <c r="F542" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B543" s="30">
-        <v>7</v>
-      </c>
-      <c r="C543" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D543" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E543" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="F543" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B544" s="30">
-        <v>7</v>
-      </c>
-      <c r="C544" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D544" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E544" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="F544" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B545" s="30">
-        <v>7</v>
-      </c>
-      <c r="C545" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D545" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E545" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="F545" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B546" s="30">
-        <v>7</v>
-      </c>
-      <c r="C546" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D546" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E546" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="F546" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B547" s="30">
-        <v>7</v>
-      </c>
-      <c r="C547" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D547" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E547" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="F547" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B548" s="30">
-        <v>7</v>
-      </c>
-      <c r="C548" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D548" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E548" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="F548" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B549" s="30">
-        <v>7</v>
-      </c>
-      <c r="C549" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D549" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E549" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="F549" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B550" s="30">
-        <v>7</v>
-      </c>
-      <c r="C550" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D550" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E550" s="32" t="s">
-        <v>610</v>
-      </c>
-      <c r="F550" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B551" s="30">
-        <v>7</v>
-      </c>
-      <c r="C551" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D551" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E551" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="F551" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B552" s="30">
-        <v>7</v>
-      </c>
-      <c r="C552" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D552" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E552" s="32" t="s">
-        <v>612</v>
-      </c>
-      <c r="F552" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B553" s="30">
-        <v>7</v>
-      </c>
-      <c r="C553" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D553" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E553" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="F553" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B554" s="30">
-        <v>7</v>
-      </c>
-      <c r="C554" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D554" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E554" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="F554" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B555" s="30">
-        <v>7</v>
-      </c>
-      <c r="C555" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D555" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E555" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="F555" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A556" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B556" s="30">
-        <v>7</v>
-      </c>
-      <c r="C556" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D556" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E556" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="F556" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B557" s="30">
-        <v>7</v>
-      </c>
-      <c r="C557" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D557" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E557" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="F557" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A558" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B558" s="30">
-        <v>7</v>
-      </c>
-      <c r="C558" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D558" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E558" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="F558" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B559" s="30">
-        <v>7</v>
-      </c>
-      <c r="C559" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D559" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E559" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="F559" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A560" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B560" s="30">
-        <v>7</v>
-      </c>
-      <c r="C560" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D560" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E560" s="32" t="s">
-        <v>620</v>
-      </c>
-      <c r="F560" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B561" s="30">
-        <v>7</v>
-      </c>
-      <c r="C561" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D561" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E561" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="F561" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B562" s="30">
-        <v>7</v>
-      </c>
-      <c r="C562" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D562" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E562" s="32" t="s">
-        <v>622</v>
-      </c>
-      <c r="F562" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B563" s="30">
-        <v>7</v>
-      </c>
-      <c r="C563" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D563" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E563" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="F563" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B564" s="30">
-        <v>7</v>
-      </c>
-      <c r="C564" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D564" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E564" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="F564" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A565" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B565" s="30">
-        <v>7</v>
-      </c>
-      <c r="C565" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D565" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E565" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="F565" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A566" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B566" s="30">
-        <v>7</v>
-      </c>
-      <c r="C566" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D566" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E566" s="32" t="s">
-        <v>626</v>
-      </c>
-      <c r="F566" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A567" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B567" s="30">
-        <v>7</v>
-      </c>
-      <c r="C567" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D567" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E567" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="F567" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A568" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B568" s="30">
-        <v>7</v>
-      </c>
-      <c r="C568" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D568" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E568" s="32" t="s">
-        <v>628</v>
-      </c>
-      <c r="F568" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A569" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B569" s="30">
-        <v>7</v>
-      </c>
-      <c r="C569" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D569" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E569" s="32" t="s">
-        <v>629</v>
-      </c>
-      <c r="F569" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A570" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B570" s="30">
-        <v>7</v>
-      </c>
-      <c r="C570" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D570" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E570" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="F570" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A571" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B571" s="30">
-        <v>7</v>
-      </c>
-      <c r="C571" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D571" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E571" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="F571" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A572" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B572" s="30">
-        <v>7</v>
-      </c>
-      <c r="C572" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D572" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E572" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="F572" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A573" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B573" s="30">
-        <v>7</v>
-      </c>
-      <c r="C573" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D573" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E573" s="32" t="s">
+      <c r="D574" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E574" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="F573" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A574" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B574" s="30">
-        <v>7</v>
-      </c>
-      <c r="C574" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D574" s="31" t="s">
+      <c r="F574" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B575" s="28">
+        <v>7</v>
+      </c>
+      <c r="C575" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D575" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E574" s="32" t="s">
+      <c r="E575" s="30" t="s">
         <v>634</v>
       </c>
-      <c r="F574" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A575" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B575" s="30">
-        <v>7</v>
-      </c>
-      <c r="C575" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D575" s="31" t="s">
+      <c r="F575" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B576" s="28">
+        <v>7</v>
+      </c>
+      <c r="C576" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D576" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E575" s="32" t="s">
+      <c r="E576" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="F575" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B576" s="30">
-        <v>7</v>
-      </c>
-      <c r="C576" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D576" s="31" t="s">
+      <c r="F576" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B577" s="28">
+        <v>7</v>
+      </c>
+      <c r="C577" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D577" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E576" s="32" t="s">
+      <c r="E577" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="F576" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A577" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B577" s="30">
-        <v>7</v>
-      </c>
-      <c r="C577" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D577" s="31" t="s">
+      <c r="F577" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B578" s="28">
+        <v>7</v>
+      </c>
+      <c r="C578" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D578" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E577" s="32" t="s">
+      <c r="E578" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="F577" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A578" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B578" s="30">
-        <v>7</v>
-      </c>
-      <c r="C578" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D578" s="31" t="s">
+      <c r="F578" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B579" s="28">
+        <v>7</v>
+      </c>
+      <c r="C579" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D579" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E578" s="32" t="s">
+      <c r="E579" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="F578" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A579" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B579" s="30">
-        <v>7</v>
-      </c>
-      <c r="C579" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D579" s="31" t="s">
+      <c r="F579" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B580" s="28">
+        <v>7</v>
+      </c>
+      <c r="C580" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="D580" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E579" s="32" t="s">
+      <c r="E580" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="F579" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A580" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B580" s="30">
-        <v>7</v>
-      </c>
-      <c r="C580" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D580" s="31" t="s">
+      <c r="F580" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="B581" s="28">
+        <v>7</v>
+      </c>
+      <c r="C581" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D581" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E580" s="32" t="s">
+      <c r="E581" s="30" t="s">
         <v>640</v>
-      </c>
-      <c r="F580" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A581" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B581" s="30">
-        <v>7</v>
-      </c>
-      <c r="C581" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D581" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E581" s="32" t="s">
-        <v>641</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>55</v>
